--- a/config/CPU.xlsx
+++ b/config/CPU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="962">
   <si>
     <t>DB2.ref_a</t>
   </si>
@@ -376,21 +376,12 @@
     <t>DB21,REAL0,10000</t>
   </si>
   <si>
-    <t>DB22.ref</t>
-  </si>
-  <si>
     <t>DB22,REAL0,100</t>
   </si>
   <si>
-    <t>DB22.output_current</t>
-  </si>
-  <si>
     <t>DB22,REAL400,100</t>
   </si>
   <si>
-    <t>CMT=выходной ток</t>
-  </si>
-  <si>
     <t>DB23.coordinate</t>
   </si>
   <si>
@@ -2855,6 +2846,60 @@
   </si>
   <si>
     <t>CMT=Число ячеек блока DB20/24</t>
+  </si>
+  <si>
+    <t>DB22.open_ref</t>
+  </si>
+  <si>
+    <t>DB22.open_consumption</t>
+  </si>
+  <si>
+    <t>DB22.open_bp3</t>
+  </si>
+  <si>
+    <t>DB22.open_bp4</t>
+  </si>
+  <si>
+    <t>DB22.open_bp5</t>
+  </si>
+  <si>
+    <t>DB22.close_ref</t>
+  </si>
+  <si>
+    <t>DB22.close_consumption</t>
+  </si>
+  <si>
+    <t>DB22.close_bp3</t>
+  </si>
+  <si>
+    <t>DB22.close_bp4</t>
+  </si>
+  <si>
+    <t>DB22.close_bp5</t>
+  </si>
+  <si>
+    <t>DB22,REAL800,100</t>
+  </si>
+  <si>
+    <t>DB22,REAL1200,100</t>
+  </si>
+  <si>
+    <t>DB22,REAL1600,100</t>
+  </si>
+  <si>
+    <t>DB22,REAL2000,100</t>
+  </si>
+  <si>
+    <t>DB22,REAL2400,100</t>
+  </si>
+  <si>
+    <t>DB22,REAL2800,100</t>
+  </si>
+  <si>
+    <t>DB22,REAL3200,100</t>
+  </si>
+  <si>
+    <t>DB22,REAL3600,100</t>
   </si>
 </sst>
 </file>
@@ -3016,7 +3061,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3198,6 +3243,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3369,11 +3420,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3709,10 +3761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E346"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3794,10 +3846,10 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -3806,15 +3858,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -3823,15 +3875,15 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -3840,15 +3892,15 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -3857,15 +3909,15 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -3874,15 +3926,15 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -3891,15 +3943,15 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -3908,15 +3960,15 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -3925,15 +3977,15 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -3942,15 +3994,15 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -3959,15 +4011,15 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -3976,15 +4028,15 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -3993,15 +4045,15 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -4010,865 +4062,715 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1">
+      <c r="A23" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1">
+      <c r="A25" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1">
+      <c r="A27" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1"/>
+    <row r="30" spans="1:5" s="2" customFormat="1"/>
+    <row r="31" spans="1:5" s="2" customFormat="1"/>
+    <row r="32" spans="1:5" s="2" customFormat="1">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1">
+      <c r="A34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1">
+      <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1">
-      <c r="A19" s="1" t="s">
+    <row r="36" spans="1:5" s="2" customFormat="1">
+      <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1">
-      <c r="A20" s="1" t="s">
+    <row r="37" spans="1:5" s="2" customFormat="1">
+      <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1">
-      <c r="A21" s="1" t="s">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1">
-      <c r="A22" s="1" t="s">
+    <row r="39" spans="1:5" s="2" customFormat="1">
+      <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1">
-      <c r="A23" s="1" t="s">
+    <row r="40" spans="1:5" s="2" customFormat="1">
+      <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1">
-      <c r="A25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1">
-      <c r="A27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1">
-      <c r="A28" s="1" t="s">
+    <row r="45" spans="1:5" s="2" customFormat="1">
+      <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1">
-      <c r="A29" s="1" t="s">
+    <row r="46" spans="1:5" s="2" customFormat="1">
+      <c r="A46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1">
-      <c r="A30" s="1" t="s">
+    <row r="47" spans="1:5" s="2" customFormat="1">
+      <c r="A47" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1">
-      <c r="A31" s="1" t="s">
+    <row r="48" spans="1:5" s="2" customFormat="1">
+      <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1">
-      <c r="A32" s="1" t="s">
+    <row r="49" spans="1:5" s="2" customFormat="1">
+      <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1">
-      <c r="A33" s="1" t="s">
+    <row r="50" spans="1:5" s="2" customFormat="1">
+      <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1">
-      <c r="A34" s="1" t="s">
+    <row r="51" spans="1:5" s="2" customFormat="1">
+      <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1">
-      <c r="A35" s="1" t="s">
+    <row r="52" spans="1:5" s="2" customFormat="1">
+      <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1">
-      <c r="A36" s="1" t="s">
+    <row r="53" spans="1:5" s="2" customFormat="1">
+      <c r="A53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1">
-      <c r="A37" s="1" t="s">
+    <row r="54" spans="1:5" s="2" customFormat="1">
+      <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1">
-      <c r="A38" s="1" t="s">
+    <row r="55" spans="1:5" s="2" customFormat="1">
+      <c r="A55" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1">
-      <c r="A39" s="1" t="s">
+    <row r="56" spans="1:5" s="2" customFormat="1">
+      <c r="A56" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1">
-      <c r="A40" s="1" t="s">
+    <row r="57" spans="1:5" s="2" customFormat="1">
+      <c r="A57" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1">
-      <c r="A41" s="1" t="s">
+    <row r="58" spans="1:5" s="2" customFormat="1">
+      <c r="A58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1">
-      <c r="A42" s="1" t="s">
+    <row r="59" spans="1:5" s="2" customFormat="1">
+      <c r="A59" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1">
-      <c r="A43" s="1" t="s">
+    <row r="60" spans="1:5" s="2" customFormat="1">
+      <c r="A60" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1">
-      <c r="A44" s="1" t="s">
+    <row r="61" spans="1:5" s="2" customFormat="1">
+      <c r="A61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="C61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1">
-      <c r="A45" s="1" t="s">
+    <row r="62" spans="1:5" s="2" customFormat="1">
+      <c r="A62" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="1" customFormat="1">
-      <c r="A46" s="1" t="s">
+    <row r="63" spans="1:5" s="2" customFormat="1">
+      <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1">
-      <c r="A47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="1" customFormat="1">
-      <c r="A48" s="1" t="s">
+    <row r="66" spans="1:5" s="2" customFormat="1">
+      <c r="A66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1">
+      <c r="A67" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" s="1" customFormat="1">
-      <c r="A49" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="1" customFormat="1">
-      <c r="A50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -4877,15 +4779,15 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -4894,15 +4796,15 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -4911,15 +4813,15 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -4928,15 +4830,15 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -4945,15 +4847,15 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -4962,15 +4864,15 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -4979,15 +4881,15 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -4996,15 +4898,15 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -5013,15 +4915,15 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -5030,15 +4932,15 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -5047,15 +4949,15 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -5064,15 +4966,15 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -5081,15 +4983,15 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -5098,15 +5000,15 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -5115,15 +5017,15 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -5132,15 +5034,15 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -5149,15 +5051,15 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -5166,15 +5068,15 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -5183,15 +5085,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -5200,15 +5102,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -5217,15 +5119,15 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -5234,15 +5136,15 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -5251,15 +5153,15 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -5268,15 +5170,15 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -5285,15 +5187,15 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -5302,15 +5204,15 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -5319,15 +5221,15 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -5336,15 +5238,15 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -5353,15 +5255,15 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -5370,15 +5272,15 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="B98" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -5387,15 +5289,15 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="B99" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -5404,15 +5306,15 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>238</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -5421,15 +5323,15 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -5438,15 +5340,15 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -5455,15 +5357,15 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -5472,15 +5374,15 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>250</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="B104" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -5489,15 +5391,15 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>253</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -5506,15 +5408,15 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
@@ -5523,15 +5425,15 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -5540,15 +5442,15 @@
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -5557,15 +5459,15 @@
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -5574,15 +5476,15 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -5591,15 +5493,15 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="B111" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -5608,15 +5510,15 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -5625,15 +5527,15 @@
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="B113" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -5642,15 +5544,15 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -5659,15 +5561,15 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -5676,15 +5578,15 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -5693,15 +5595,15 @@
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -5710,15 +5612,15 @@
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="B118" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -5727,15 +5629,15 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="B119" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -5744,15 +5646,15 @@
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="B120" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -5761,15 +5663,15 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="B121" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
@@ -5778,15 +5680,15 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="B122" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -5795,15 +5697,15 @@
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
@@ -5812,15 +5714,15 @@
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B124" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
@@ -5829,15 +5731,15 @@
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -5846,15 +5748,15 @@
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="B126" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -5863,15 +5765,15 @@
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="B127" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -5880,15 +5782,15 @@
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="B128" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -5897,15 +5799,15 @@
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="B129" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
@@ -5914,15 +5816,15 @@
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="B130" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -5931,15 +5833,15 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="B131" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -5948,15 +5850,15 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="B132" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -5965,15 +5867,15 @@
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="B133" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
@@ -5982,15 +5884,15 @@
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="B134" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -5999,15 +5901,15 @@
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="B135" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -6016,15 +5918,15 @@
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B136" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
@@ -6033,15 +5935,15 @@
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="B137" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -6050,15 +5952,15 @@
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="B138" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -6067,15 +5969,15 @@
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="B139" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -6084,15 +5986,15 @@
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="B140" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -6101,15 +6003,15 @@
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="B141" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -6118,15 +6020,15 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="B142" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
@@ -6135,15 +6037,15 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="B143" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -6152,15 +6054,15 @@
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="B144" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -6169,15 +6071,15 @@
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="B145" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -6186,15 +6088,15 @@
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="B146" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -6203,15 +6105,15 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="B147" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -6220,15 +6122,15 @@
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="B148" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -6237,15 +6139,15 @@
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="B149" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -6254,15 +6156,15 @@
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="B150" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -6271,15 +6173,15 @@
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="B151" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -6288,15 +6190,15 @@
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="B152" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -6305,15 +6207,15 @@
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="B153" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -6322,15 +6224,15 @@
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="B154" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
@@ -6339,15 +6241,15 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="B155" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
@@ -6356,15 +6258,15 @@
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="B156" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -6373,15 +6275,15 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="B157" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
@@ -6390,15 +6292,15 @@
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="B158" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -6407,15 +6309,15 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="B159" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -6424,15 +6326,15 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="B160" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -6441,15 +6343,15 @@
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="B161" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -6458,15 +6360,15 @@
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="B162" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -6475,15 +6377,15 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="B163" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -6492,15 +6394,15 @@
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="B164" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -6509,15 +6411,15 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="B165" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -6526,15 +6428,15 @@
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="B166" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -6543,15 +6445,15 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>427</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="B167" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -6560,15 +6462,15 @@
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="B168" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -6577,15 +6479,15 @@
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>433</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="B169" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -6594,15 +6496,15 @@
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="B170" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -6611,15 +6513,15 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="B171" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -6628,15 +6530,15 @@
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="B172" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -6645,15 +6547,15 @@
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="B173" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -6662,15 +6564,15 @@
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="B174" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -6679,15 +6581,15 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>452</v>
+        <v>398</v>
       </c>
       <c r="B175" t="s">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -6696,15 +6598,15 @@
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>454</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="B176" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -6713,15 +6615,15 @@
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="B177" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -6730,15 +6632,15 @@
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="B178" t="s">
-        <v>462</v>
+        <v>408</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -6747,15 +6649,15 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="B179" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -6764,15 +6666,15 @@
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>466</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="B180" t="s">
-        <v>468</v>
+        <v>414</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -6781,15 +6683,15 @@
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>469</v>
+        <v>415</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="B181" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -6798,15 +6700,15 @@
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>472</v>
+        <v>418</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="B182" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -6815,15 +6717,15 @@
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>475</v>
+        <v>421</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="B183" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -6832,15 +6734,15 @@
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>479</v>
+        <v>425</v>
       </c>
       <c r="B184" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
@@ -6849,15 +6751,15 @@
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>481</v>
+        <v>427</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="B185" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -6866,15 +6768,15 @@
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>484</v>
+        <v>430</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="B186" t="s">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -6883,15 +6785,15 @@
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>487</v>
+        <v>433</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="B187" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -6900,15 +6802,15 @@
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>490</v>
+        <v>436</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="B188" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -6917,15 +6819,15 @@
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="B189" t="s">
-        <v>495</v>
+        <v>441</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -6934,15 +6836,15 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>496</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
       <c r="B190" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -6951,15 +6853,15 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="B191" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
@@ -6968,15 +6870,15 @@
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>502</v>
+        <v>448</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="B192" t="s">
-        <v>504</v>
+        <v>450</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -6985,15 +6887,15 @@
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>505</v>
+        <v>451</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="B193" t="s">
-        <v>507</v>
+        <v>453</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -7002,15 +6904,15 @@
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>508</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>509</v>
+        <v>455</v>
       </c>
       <c r="B194" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -7019,15 +6921,15 @@
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>512</v>
+        <v>458</v>
       </c>
       <c r="B195" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -7036,15 +6938,15 @@
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
       <c r="B196" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -7053,15 +6955,15 @@
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>518</v>
+        <v>464</v>
       </c>
       <c r="B197" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -7070,15 +6972,15 @@
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>520</v>
+        <v>466</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="B198" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -7087,15 +6989,15 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
       <c r="B199" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="C199" t="s">
         <v>2</v>
@@ -7104,15 +7006,15 @@
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>527</v>
+        <v>473</v>
       </c>
       <c r="B200" t="s">
-        <v>528</v>
+        <v>474</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
@@ -7121,15 +7023,15 @@
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>529</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>530</v>
+        <v>476</v>
       </c>
       <c r="B201" t="s">
-        <v>531</v>
+        <v>477</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -7138,15 +7040,15 @@
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>532</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>533</v>
+        <v>479</v>
       </c>
       <c r="B202" t="s">
-        <v>534</v>
+        <v>480</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -7155,15 +7057,15 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>535</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>536</v>
+        <v>482</v>
       </c>
       <c r="B203" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
       <c r="C203" t="s">
         <v>2</v>
@@ -7172,15 +7074,15 @@
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>538</v>
+        <v>484</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="B204" t="s">
-        <v>540</v>
+        <v>486</v>
       </c>
       <c r="C204" t="s">
         <v>2</v>
@@ -7189,1409 +7091,1409 @@
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>541</v>
+        <v>487</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
+        <v>488</v>
+      </c>
+      <c r="B205" t="s">
+        <v>489</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>491</v>
+      </c>
+      <c r="B206" t="s">
+        <v>492</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>494</v>
+      </c>
+      <c r="B207" t="s">
+        <v>495</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>497</v>
+      </c>
+      <c r="B208" t="s">
+        <v>498</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>500</v>
+      </c>
+      <c r="B209" t="s">
+        <v>501</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>503</v>
+      </c>
+      <c r="B210" t="s">
+        <v>504</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>506</v>
+      </c>
+      <c r="B211" t="s">
+        <v>507</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>509</v>
+      </c>
+      <c r="B212" t="s">
+        <v>510</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>512</v>
+      </c>
+      <c r="B213" t="s">
+        <v>513</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>515</v>
+      </c>
+      <c r="B214" t="s">
+        <v>516</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>518</v>
+      </c>
+      <c r="B215" t="s">
+        <v>519</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>521</v>
+      </c>
+      <c r="B216" t="s">
+        <v>522</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>524</v>
+      </c>
+      <c r="B217" t="s">
+        <v>525</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>527</v>
+      </c>
+      <c r="B218" t="s">
+        <v>528</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>530</v>
+      </c>
+      <c r="B219" t="s">
+        <v>531</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>3</v>
+      </c>
+      <c r="E219" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>533</v>
+      </c>
+      <c r="B220" t="s">
+        <v>534</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>536</v>
+      </c>
+      <c r="B221" t="s">
+        <v>537</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>539</v>
+      </c>
+      <c r="B222" t="s">
+        <v>540</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" s="3" customFormat="1">
+      <c r="A223" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B223" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C205" t="s">
-        <v>2</v>
-      </c>
-      <c r="D205" t="s">
-        <v>3</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="C223" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E223" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="2" customFormat="1">
-      <c r="A206" s="2" t="s">
+    <row r="224" spans="1:5" s="3" customFormat="1">
+      <c r="A224" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B224" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E206" s="2" t="s">
+      <c r="C224" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="2" customFormat="1">
-      <c r="A207" s="2" t="s">
+    <row r="225" spans="1:5" s="3" customFormat="1">
+      <c r="A225" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B225" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E207" s="2" t="s">
+      <c r="C225" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E225" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="2" customFormat="1">
-      <c r="A208" s="2" t="s">
+    <row r="226" spans="1:5" s="3" customFormat="1">
+      <c r="A226" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E208" s="2" t="s">
+      <c r="C226" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E226" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="2" customFormat="1">
-      <c r="A209" s="2" t="s">
+    <row r="227" spans="1:5" s="3" customFormat="1">
+      <c r="A227" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B227" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E209" s="2" t="s">
+      <c r="C227" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E227" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="2" customFormat="1">
-      <c r="A210" s="2" t="s">
+    <row r="228" spans="1:5" s="3" customFormat="1">
+      <c r="A228" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B228" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" s="2" t="s">
+      <c r="C228" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E228" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="2" customFormat="1">
-      <c r="A211" s="2" t="s">
+    <row r="229" spans="1:5" s="3" customFormat="1">
+      <c r="A229" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B229" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E211" s="2" t="s">
+      <c r="C229" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="2" customFormat="1">
-      <c r="A212" s="2" t="s">
+    <row r="230" spans="1:5" s="3" customFormat="1">
+      <c r="A230" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B230" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E212" s="2" t="s">
+      <c r="C230" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="2" customFormat="1">
-      <c r="A213" s="2" t="s">
+    <row r="231" spans="1:5" s="3" customFormat="1">
+      <c r="A231" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B231" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E213" s="2" t="s">
+      <c r="C231" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E231" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="2" customFormat="1">
-      <c r="A214" s="2" t="s">
+    <row r="232" spans="1:5" s="3" customFormat="1">
+      <c r="A232" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B232" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E214" s="2" t="s">
+      <c r="C232" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E232" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="2" customFormat="1">
-      <c r="A215" s="2" t="s">
+    <row r="233" spans="1:5" s="3" customFormat="1">
+      <c r="A233" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B233" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" s="2" t="s">
+      <c r="C233" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="2" customFormat="1">
-      <c r="A216" s="2" t="s">
+    <row r="234" spans="1:5" s="3" customFormat="1">
+      <c r="A234" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B234" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" s="2" t="s">
+      <c r="C234" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="2" customFormat="1">
-      <c r="A217" s="2" t="s">
+    <row r="235" spans="1:5" s="3" customFormat="1">
+      <c r="A235" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B235" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E217" s="2" t="s">
+      <c r="C235" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="2" customFormat="1">
-      <c r="A218" s="2" t="s">
+    <row r="236" spans="1:5" s="3" customFormat="1">
+      <c r="A236" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B236" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E218" s="2" t="s">
+      <c r="C236" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="2" customFormat="1">
-      <c r="A219" s="2" t="s">
+    <row r="237" spans="1:5" s="3" customFormat="1">
+      <c r="A237" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B237" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E219" s="2" t="s">
+      <c r="C237" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E237" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="220" spans="1:5" s="2" customFormat="1">
-      <c r="A220" s="2" t="s">
+    <row r="238" spans="1:5" s="3" customFormat="1">
+      <c r="A238" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B238" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E220" s="2" t="s">
+      <c r="C238" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="2" customFormat="1">
-      <c r="A221" s="2" t="s">
+    <row r="239" spans="1:5" s="3" customFormat="1">
+      <c r="A239" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B239" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E221" s="2" t="s">
+      <c r="C239" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E239" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="222" spans="1:5" s="2" customFormat="1">
-      <c r="A222" s="2" t="s">
+    <row r="240" spans="1:5" s="3" customFormat="1">
+      <c r="A240" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B240" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E222" s="2" t="s">
+      <c r="C240" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E240" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="223" spans="1:5" s="2" customFormat="1">
-      <c r="A223" s="2" t="s">
+    <row r="241" spans="1:5" s="3" customFormat="1">
+      <c r="A241" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B241" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E223" s="2" t="s">
+      <c r="C241" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E241" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="224" spans="1:5" s="2" customFormat="1">
-      <c r="A224" s="2" t="s">
+    <row r="242" spans="1:5" s="3" customFormat="1">
+      <c r="A242" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B242" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E224" s="2" t="s">
+      <c r="C242" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" s="3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="225" spans="1:5" s="2" customFormat="1">
-      <c r="A225" s="2" t="s">
+    <row r="243" spans="1:5" s="3" customFormat="1">
+      <c r="A243" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B243" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E225" s="2" t="s">
+      <c r="C243" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E243" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="2" customFormat="1">
-      <c r="A226" s="2" t="s">
+    <row r="244" spans="1:5" s="3" customFormat="1">
+      <c r="A244" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B244" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E226" s="2" t="s">
+      <c r="C244" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E244" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="2" customFormat="1">
-      <c r="A227" s="2" t="s">
+    <row r="245" spans="1:5" s="3" customFormat="1">
+      <c r="A245" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B245" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="C245" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="228" spans="1:5" s="2" customFormat="1">
-      <c r="A228" s="2" t="s">
+    <row r="246" spans="1:5" s="3" customFormat="1">
+      <c r="A246" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B246" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E228" s="2" t="s">
+      <c r="C246" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E246" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="229" spans="1:5" s="2" customFormat="1">
-      <c r="A229" s="2" t="s">
+    <row r="247" spans="1:5" s="3" customFormat="1">
+      <c r="A247" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B247" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E229" s="2" t="s">
+      <c r="C247" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E247" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="2" customFormat="1">
-      <c r="A230" s="2" t="s">
+    <row r="248" spans="1:5" s="3" customFormat="1">
+      <c r="A248" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B248" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E230" s="2" t="s">
+      <c r="C248" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E248" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="231" spans="1:5" s="2" customFormat="1">
-      <c r="A231" s="2" t="s">
+    <row r="249" spans="1:5" s="3" customFormat="1">
+      <c r="A249" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B249" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E231" s="2" t="s">
+      <c r="C249" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E249" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="232" spans="1:5" s="2" customFormat="1">
-      <c r="A232" s="2" t="s">
+    <row r="250" spans="1:5" s="3" customFormat="1">
+      <c r="A250" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B250" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E232" s="2" t="s">
+      <c r="C250" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E250" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="233" spans="1:5" s="2" customFormat="1">
-      <c r="A233" s="2" t="s">
+    <row r="251" spans="1:5" s="3" customFormat="1">
+      <c r="A251" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B251" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E233" s="2" t="s">
+      <c r="C251" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="234" spans="1:5" s="2" customFormat="1">
-      <c r="A234" s="2" t="s">
+    <row r="252" spans="1:5" s="3" customFormat="1">
+      <c r="A252" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B252" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E234" s="2" t="s">
+      <c r="C252" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E252" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="235" spans="1:5" s="2" customFormat="1">
-      <c r="A235" s="2" t="s">
+    <row r="253" spans="1:5" s="3" customFormat="1">
+      <c r="A253" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B253" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E235" s="2" t="s">
+      <c r="C253" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="2" customFormat="1">
-      <c r="A236" s="2" t="s">
+    <row r="254" spans="1:5" s="3" customFormat="1">
+      <c r="A254" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B254" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E236" s="2" t="s">
+      <c r="C254" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E254" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="2" customFormat="1">
-      <c r="A237" s="2" t="s">
+    <row r="255" spans="1:5" s="3" customFormat="1">
+      <c r="A255" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B255" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E237" s="2" t="s">
+      <c r="C255" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E255" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="238" spans="1:5" s="2" customFormat="1">
-      <c r="A238" s="2" t="s">
+    <row r="256" spans="1:5" s="3" customFormat="1">
+      <c r="A256" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B256" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E238" s="2" t="s">
+      <c r="C256" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="2" customFormat="1">
-      <c r="A239" s="2" t="s">
+    <row r="257" spans="1:5" s="3" customFormat="1">
+      <c r="A257" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B257" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E239" s="2" t="s">
+      <c r="C257" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="2" customFormat="1">
-      <c r="A240" s="2" t="s">
+    <row r="258" spans="1:5" s="3" customFormat="1">
+      <c r="A258" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B258" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E240" s="2" t="s">
+      <c r="C258" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="241" spans="1:5" s="2" customFormat="1">
-      <c r="A241" s="2" t="s">
+    <row r="259" spans="1:5" s="3" customFormat="1">
+      <c r="A259" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B259" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E241" s="2" t="s">
+      <c r="C259" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="242" spans="1:5" s="2" customFormat="1">
-      <c r="A242" s="2" t="s">
+    <row r="260" spans="1:5" s="3" customFormat="1">
+      <c r="A260" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B260" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E242" s="2" t="s">
+      <c r="C260" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="243" spans="1:5" s="2" customFormat="1">
-      <c r="A243" s="2" t="s">
+    <row r="261" spans="1:5" s="3" customFormat="1">
+      <c r="A261" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" s="3" customFormat="1">
+      <c r="A262" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" s="3" customFormat="1">
+      <c r="A263" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" s="3" customFormat="1">
+      <c r="A264" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" s="3" customFormat="1">
+      <c r="A265" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" s="3" customFormat="1">
+      <c r="A266" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" s="3" customFormat="1">
+      <c r="A267" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" s="3" customFormat="1">
+      <c r="A268" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B268" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E243" s="2" t="s">
+      <c r="C268" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E268" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="244" spans="1:5" s="2" customFormat="1">
-      <c r="A244" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" s="2" customFormat="1">
-      <c r="A245" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" s="2" customFormat="1">
-      <c r="A246" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" s="2" customFormat="1">
-      <c r="A247" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E247" s="2" t="s">
+    <row r="269" spans="1:5" s="3" customFormat="1">
+      <c r="A269" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" s="3" customFormat="1">
+      <c r="A270" s="3" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" s="2" customFormat="1">
-      <c r="A248" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E248" s="2" t="s">
+      <c r="B270" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" s="3" customFormat="1">
+      <c r="A271" s="3" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" s="2" customFormat="1">
-      <c r="A249" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" s="2" customFormat="1">
-      <c r="A250" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" s="2" customFormat="1">
-      <c r="A251" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E251" s="2" t="s">
+      <c r="B271" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" s="3" customFormat="1">
+      <c r="A272" s="3" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" s="2" customFormat="1">
-      <c r="A252" s="2" t="s">
+      <c r="B272" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="C272" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E272" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" s="2" customFormat="1">
-      <c r="A253" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" s="2" customFormat="1">
-      <c r="A254" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" s="2" customFormat="1">
-      <c r="A255" s="2" t="s">
+    </row>
+    <row r="273" spans="1:5" s="3" customFormat="1">
+      <c r="A273" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B273" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E255" s="2" t="s">
+      <c r="C273" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="256" spans="1:5" s="2" customFormat="1">
-      <c r="A256" s="2" t="s">
+    <row r="274" spans="1:5" s="3" customFormat="1">
+      <c r="A274" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B274" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E256" s="2" t="s">
+      <c r="C274" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="257" spans="1:5" s="2" customFormat="1">
-      <c r="A257" s="2" t="s">
+    <row r="275" spans="1:5" s="3" customFormat="1">
+      <c r="A275" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B275" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E257" s="2" t="s">
+      <c r="C275" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" s="3" customFormat="1">
+      <c r="A276" s="3" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" s="2" customFormat="1">
-      <c r="A258" s="2" t="s">
+      <c r="B276" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="C276" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E276" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" s="2" customFormat="1">
-      <c r="A259" s="2" t="s">
+    </row>
+    <row r="277" spans="1:5" s="3" customFormat="1">
+      <c r="A277" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B277" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E259" s="2" t="s">
+      <c r="C277" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E277" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="2" customFormat="1">
-      <c r="A260" s="2" t="s">
+    <row r="278" spans="1:5" s="3" customFormat="1">
+      <c r="A278" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B278" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E260" s="2" t="s">
+      <c r="C278" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E278" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="261" spans="1:5" s="2" customFormat="1">
-      <c r="A261" s="2" t="s">
+    <row r="279" spans="1:5" s="3" customFormat="1">
+      <c r="A279" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B279" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E261" s="2" t="s">
+      <c r="C279" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" s="3" customFormat="1">
+      <c r="A280" s="3" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" s="2" customFormat="1">
-      <c r="A262" s="2" t="s">
+      <c r="B280" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="C280" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" s="3" customFormat="1">
+      <c r="A281" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" s="2" customFormat="1">
-      <c r="A263" s="2" t="s">
+      <c r="B281" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="C281" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" s="3" customFormat="1">
+      <c r="A282" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" s="2" customFormat="1">
-      <c r="A264" s="2" t="s">
+      <c r="B282" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="C282" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" s="3" customFormat="1">
+      <c r="A283" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" s="2" customFormat="1">
-      <c r="A265" s="2" t="s">
+      <c r="B283" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="C283" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E283" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" s="2" customFormat="1">
-      <c r="A266" s="2" t="s">
+    </row>
+    <row r="284" spans="1:5" s="3" customFormat="1">
+      <c r="A284" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B284" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E266" s="2" t="s">
+      <c r="C284" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E284" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="267" spans="1:5" s="2" customFormat="1">
-      <c r="A267" s="2" t="s">
+    <row r="285" spans="1:5" s="3" customFormat="1">
+      <c r="A285" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B285" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E267" s="2" t="s">
+      <c r="C285" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" s="3" customFormat="1">
+      <c r="A286" s="3" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" s="2" customFormat="1">
-      <c r="A268" s="2" t="s">
+      <c r="B286" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E268" s="2" t="s">
+      <c r="C286" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E286" s="3" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" s="2" customFormat="1">
-      <c r="A269" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" s="2" customFormat="1">
-      <c r="A270" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" s="2" customFormat="1">
-      <c r="A271" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" s="2" customFormat="1">
-      <c r="A272" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" s="2" customFormat="1">
-      <c r="A273" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" s="2" customFormat="1">
-      <c r="A274" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" s="2" customFormat="1">
-      <c r="A275" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" s="2" customFormat="1">
-      <c r="A276" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" s="2" customFormat="1">
-      <c r="A277" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" s="2" customFormat="1">
-      <c r="A278" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" s="2" customFormat="1">
-      <c r="A279" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" s="2" customFormat="1">
-      <c r="A280" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" s="2" customFormat="1">
-      <c r="A281" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" s="2" customFormat="1">
-      <c r="A282" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" s="2" customFormat="1">
-      <c r="A283" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" s="2" customFormat="1">
-      <c r="A284" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" s="2" customFormat="1">
-      <c r="A285" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" s="2" customFormat="1">
-      <c r="A286" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="287" spans="1:5" s="3" customFormat="1">
       <c r="A287" s="3" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>2</v>
@@ -8600,15 +8502,15 @@
         <v>3</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="288" spans="1:5" s="3" customFormat="1">
       <c r="A288" s="3" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>2</v>
@@ -8617,15 +8519,15 @@
         <v>3</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="3" customFormat="1">
       <c r="A289" s="3" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>2</v>
@@ -8634,15 +8536,15 @@
         <v>3</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>728</v>
+        <v>634</v>
       </c>
     </row>
     <row r="290" spans="1:5" s="3" customFormat="1">
       <c r="A290" s="3" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>2</v>
@@ -8651,15 +8553,15 @@
         <v>3</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>731</v>
+        <v>637</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="3" customFormat="1">
       <c r="A291" s="3" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>2</v>
@@ -8668,15 +8570,15 @@
         <v>3</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>734</v>
+        <v>640</v>
       </c>
     </row>
     <row r="292" spans="1:5" s="3" customFormat="1">
       <c r="A292" s="3" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>2</v>
@@ -8685,15 +8587,15 @@
         <v>3</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>737</v>
+        <v>643</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="3" customFormat="1">
       <c r="A293" s="3" t="s">
-        <v>738</v>
+        <v>711</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>739</v>
+        <v>712</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>2</v>
@@ -8702,15 +8604,15 @@
         <v>3</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>740</v>
+        <v>646</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="3" customFormat="1">
       <c r="A294" s="3" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>2</v>
@@ -8719,15 +8621,15 @@
         <v>3</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>743</v>
+        <v>649</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="3" customFormat="1">
       <c r="A295" s="3" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>2</v>
@@ -8736,15 +8638,15 @@
         <v>3</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>746</v>
+        <v>652</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="3" customFormat="1">
       <c r="A296" s="3" t="s">
-        <v>747</v>
+        <v>717</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>748</v>
+        <v>718</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>2</v>
@@ -8753,15 +8655,15 @@
         <v>3</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>749</v>
+        <v>655</v>
       </c>
     </row>
     <row r="297" spans="1:5" s="3" customFormat="1">
       <c r="A297" s="3" t="s">
-        <v>750</v>
+        <v>935</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>751</v>
+        <v>923</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>2</v>
@@ -8770,15 +8672,15 @@
         <v>3</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>752</v>
+        <v>929</v>
       </c>
     </row>
     <row r="298" spans="1:5" s="3" customFormat="1">
       <c r="A298" s="3" t="s">
-        <v>753</v>
+        <v>936</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>754</v>
+        <v>924</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>2</v>
@@ -8787,15 +8689,15 @@
         <v>3</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>755</v>
+        <v>930</v>
       </c>
     </row>
     <row r="299" spans="1:5" s="3" customFormat="1">
       <c r="A299" s="3" t="s">
-        <v>756</v>
+        <v>937</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>757</v>
+        <v>925</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>2</v>
@@ -8804,15 +8706,15 @@
         <v>3</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>758</v>
+        <v>931</v>
       </c>
     </row>
     <row r="300" spans="1:5" s="3" customFormat="1">
       <c r="A300" s="3" t="s">
-        <v>759</v>
+        <v>938</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>760</v>
+        <v>926</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>2</v>
@@ -8821,15 +8723,15 @@
         <v>3</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>761</v>
+        <v>932</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="3" customFormat="1">
       <c r="A301" s="3" t="s">
-        <v>762</v>
+        <v>939</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>763</v>
+        <v>927</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>2</v>
@@ -8838,15 +8740,15 @@
         <v>3</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>764</v>
+        <v>933</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="3" customFormat="1">
       <c r="A302" s="3" t="s">
-        <v>765</v>
+        <v>940</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>766</v>
+        <v>928</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>2</v>
@@ -8855,755 +8757,1044 @@
         <v>3</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>767</v>
+        <v>934</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="3" customFormat="1">
       <c r="A303" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" s="4" customFormat="1">
+      <c r="A304" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" s="4" customFormat="1">
+      <c r="A305" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" s="4" customFormat="1">
+      <c r="A306" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" s="4" customFormat="1">
+      <c r="A307" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" s="4" customFormat="1">
+      <c r="A308" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" s="4" customFormat="1">
+      <c r="A309" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" s="4" customFormat="1">
+      <c r="A310" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" s="4" customFormat="1">
+      <c r="A311" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" s="4" customFormat="1">
+      <c r="A312" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" s="4" customFormat="1">
+      <c r="A313" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" s="4" customFormat="1">
+      <c r="A314" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" s="4" customFormat="1">
+      <c r="A315" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" s="4" customFormat="1">
+      <c r="A316" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" s="4" customFormat="1">
+      <c r="A317" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" s="4" customFormat="1">
+      <c r="A318" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" s="4" customFormat="1">
+      <c r="A319" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" s="4" customFormat="1">
+      <c r="A320" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" s="4" customFormat="1">
+      <c r="A321" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B321" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="C303" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E303" s="3" t="s">
+      <c r="C321" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E321" s="4" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="304" spans="1:5" s="3" customFormat="1">
-      <c r="A304" s="3" t="s">
+    <row r="322" spans="1:5" s="4" customFormat="1">
+      <c r="A322" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B322" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="C304" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E304" s="3" t="s">
+      <c r="C322" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E322" s="4" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="305" spans="1:5" s="3" customFormat="1">
-      <c r="A305" s="3" t="s">
+    <row r="323" spans="1:5" s="4" customFormat="1">
+      <c r="A323" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B323" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="C305" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E305" s="3" t="s">
+      <c r="C323" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E323" s="4" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="306" spans="1:5" s="3" customFormat="1">
-      <c r="A306" s="3" t="s">
+    <row r="324" spans="1:5" s="4" customFormat="1">
+      <c r="A324" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B324" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="C306" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E306" s="3" t="s">
+      <c r="C324" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E324" s="4" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="307" spans="1:5" s="3" customFormat="1">
-      <c r="A307" s="3" t="s">
+    <row r="325" spans="1:5" s="4" customFormat="1">
+      <c r="A325" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B325" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="C307" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E307" s="3" t="s">
+      <c r="C325" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E325" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="308" spans="1:5" s="3" customFormat="1">
-      <c r="A308" s="3" t="s">
+    <row r="326" spans="1:5" s="4" customFormat="1">
+      <c r="A326" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B326" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="C308" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E308" s="3" t="s">
+      <c r="C326" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E326" s="4" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="309" spans="1:5" s="3" customFormat="1">
-      <c r="A309" s="3" t="s">
+    <row r="327" spans="1:5" s="4" customFormat="1">
+      <c r="A327" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B327" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="C309" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E309" s="3" t="s">
+      <c r="C327" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E327" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="310" spans="1:5" s="3" customFormat="1">
-      <c r="A310" s="3" t="s">
+    <row r="328" spans="1:5" s="4" customFormat="1">
+      <c r="A328" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B328" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E310" s="3" t="s">
+      <c r="C328" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E328" s="4" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="311" spans="1:5" s="3" customFormat="1">
-      <c r="A311" s="3" t="s">
+    <row r="329" spans="1:5" s="4" customFormat="1">
+      <c r="A329" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B329" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="C311" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E311" s="3" t="s">
+      <c r="C329" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E329" s="4" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="312" spans="1:5" s="3" customFormat="1">
-      <c r="A312" s="3" t="s">
+    <row r="330" spans="1:5" s="4" customFormat="1">
+      <c r="A330" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B330" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="C312" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E312" s="3" t="s">
+      <c r="C330" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E330" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="313" spans="1:5" s="3" customFormat="1">
-      <c r="A313" s="3" t="s">
+    <row r="331" spans="1:5" s="4" customFormat="1">
+      <c r="A331" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B331" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="C313" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E313" s="3" t="s">
+      <c r="C331" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E331" s="4" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="314" spans="1:5" s="3" customFormat="1">
-      <c r="A314" s="3" t="s">
+    <row r="332" spans="1:5" s="4" customFormat="1">
+      <c r="A332" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B332" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="C314" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E314" s="3" t="s">
+      <c r="C332" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E332" s="4" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="315" spans="1:5" s="3" customFormat="1">
-      <c r="A315" s="3" t="s">
+    <row r="333" spans="1:5" s="4" customFormat="1">
+      <c r="A333" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B333" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="C315" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E315" s="3" t="s">
+      <c r="C333" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E333" s="4" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="316" spans="1:5" s="3" customFormat="1">
-      <c r="A316" s="3" t="s">
+    <row r="334" spans="1:5" s="4" customFormat="1">
+      <c r="A334" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B334" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="C316" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E316" s="3" t="s">
+      <c r="C334" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E334" s="4" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="317" spans="1:5" s="3" customFormat="1">
-      <c r="A317" s="3" t="s">
+    <row r="335" spans="1:5" s="4" customFormat="1">
+      <c r="A335" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B335" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="C317" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E317" s="3" t="s">
+      <c r="C335" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E335" s="4" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="318" spans="1:5" s="3" customFormat="1">
-      <c r="A318" s="3" t="s">
+    <row r="336" spans="1:5" s="4" customFormat="1">
+      <c r="A336" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B336" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="C318" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E318" s="3" t="s">
+      <c r="C336" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E336" s="4" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="319" spans="1:5" s="3" customFormat="1">
-      <c r="A319" s="3" t="s">
+    <row r="337" spans="1:5" s="4" customFormat="1">
+      <c r="A337" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B337" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="C319" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E319" s="3" t="s">
+      <c r="C337" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E337" s="4" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="320" spans="1:5" s="3" customFormat="1">
-      <c r="A320" s="3" t="s">
+    <row r="338" spans="1:5" s="4" customFormat="1">
+      <c r="A338" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B338" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="C320" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E320" s="3" t="s">
+      <c r="C338" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E338" s="4" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="321" spans="1:5" s="3" customFormat="1">
-      <c r="A321" s="3" t="s">
+    <row r="339" spans="1:5" s="4" customFormat="1">
+      <c r="A339" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B339" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="C321" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E321" s="3" t="s">
+      <c r="C339" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E339" s="4" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="322" spans="1:5" s="3" customFormat="1">
-      <c r="A322" s="3" t="s">
+    <row r="340" spans="1:5" s="4" customFormat="1">
+      <c r="A340" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B340" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="C322" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E322" s="3" t="s">
+      <c r="C340" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E340" s="4" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="323" spans="1:5" s="3" customFormat="1">
-      <c r="A323" s="3" t="s">
+    <row r="341" spans="1:5" s="4" customFormat="1">
+      <c r="A341" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B341" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="C323" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E323" s="3" t="s">
+      <c r="C341" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E341" s="4" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="324" spans="1:5" s="3" customFormat="1">
-      <c r="A324" s="3" t="s">
+    <row r="342" spans="1:5" s="4" customFormat="1">
+      <c r="A342" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B342" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="C324" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E324" s="3" t="s">
+      <c r="C342" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E342" s="4" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="325" spans="1:5" s="3" customFormat="1">
-      <c r="A325" s="3" t="s">
+    <row r="343" spans="1:5" s="4" customFormat="1">
+      <c r="A343" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B343" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="C325" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E325" s="3" t="s">
+      <c r="C343" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E343" s="4" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="326" spans="1:5" s="3" customFormat="1">
-      <c r="A326" s="3" t="s">
+    <row r="344" spans="1:5" s="4" customFormat="1">
+      <c r="A344" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B344" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="C326" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E326" s="3" t="s">
+      <c r="C344" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E344" s="4" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="327" spans="1:5" s="3" customFormat="1">
-      <c r="A327" s="3" t="s">
+    <row r="345" spans="1:5" s="4" customFormat="1">
+      <c r="A345" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B345" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="C327" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E327" s="3" t="s">
+      <c r="C345" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E345" s="4" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="328" spans="1:5" s="3" customFormat="1">
-      <c r="A328" s="3" t="s">
+    <row r="346" spans="1:5" s="4" customFormat="1">
+      <c r="A346" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B346" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="C328" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E328" s="3" t="s">
+      <c r="C346" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E346" s="4" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="329" spans="1:5" s="3" customFormat="1">
-      <c r="A329" s="3" t="s">
+    <row r="347" spans="1:5" s="4" customFormat="1">
+      <c r="A347" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B347" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="C329" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E329" s="3" t="s">
+      <c r="C347" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E347" s="4" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="330" spans="1:5" s="3" customFormat="1">
-      <c r="A330" s="3" t="s">
+    <row r="348" spans="1:5" s="4" customFormat="1">
+      <c r="A348" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B348" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="C330" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E330" s="3" t="s">
+      <c r="C348" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D348" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E348" s="4" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="331" spans="1:5" s="3" customFormat="1">
-      <c r="A331" s="3" t="s">
+    <row r="349" spans="1:5" s="4" customFormat="1">
+      <c r="A349" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B349" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E331" s="3" t="s">
+      <c r="C349" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E349" s="4" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="332" spans="1:5" s="3" customFormat="1">
-      <c r="A332" s="3" t="s">
+    <row r="350" spans="1:5" s="4" customFormat="1">
+      <c r="A350" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B350" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="C332" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E332" s="3" t="s">
+      <c r="C350" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E350" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="333" spans="1:5" s="3" customFormat="1">
-      <c r="A333" s="3" t="s">
+    <row r="351" spans="1:5" s="4" customFormat="1">
+      <c r="A351" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B351" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="C333" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E333" s="3" t="s">
+      <c r="C351" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E351" s="4" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="334" spans="1:5" s="3" customFormat="1">
-      <c r="A334" s="3" t="s">
+    <row r="352" spans="1:5" s="4" customFormat="1">
+      <c r="A352" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B352" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="C334" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E334" s="3" t="s">
+      <c r="C352" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E352" s="4" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="335" spans="1:5" s="3" customFormat="1">
-      <c r="A335" s="3" t="s">
+    <row r="353" spans="1:5" s="4" customFormat="1">
+      <c r="A353" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B353" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="C335" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E335" s="3" t="s">
+      <c r="C353" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E353" s="4" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="336" spans="1:5" s="3" customFormat="1">
-      <c r="A336" s="3" t="s">
+    <row r="354" spans="1:5" s="4" customFormat="1">
+      <c r="A354" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B354" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="C336" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E336" s="3" t="s">
+      <c r="C354" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E354" s="4" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="337" spans="1:5" s="3" customFormat="1">
-      <c r="A337" s="3" t="s">
+    <row r="355" spans="1:5" s="4" customFormat="1">
+      <c r="A355" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B355" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="C337" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E337" s="3" t="s">
+      <c r="C355" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E355" s="4" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="338" spans="1:5" s="3" customFormat="1">
-      <c r="A338" s="3" t="s">
+    <row r="356" spans="1:5" s="4" customFormat="1">
+      <c r="A356" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B356" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="C338" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E338" s="3" t="s">
+      <c r="C356" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E356" s="4" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="339" spans="1:5" s="3" customFormat="1">
-      <c r="A339" s="3" t="s">
+    <row r="357" spans="1:5" s="4" customFormat="1">
+      <c r="A357" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B357" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C339" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E339" s="3" t="s">
+      <c r="C357" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E357" s="4" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="340" spans="1:5" s="3" customFormat="1">
-      <c r="A340" s="3" t="s">
+    <row r="358" spans="1:5" s="4" customFormat="1">
+      <c r="A358" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B358" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="C340" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E340" s="3" t="s">
+      <c r="C358" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E358" s="4" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="341" spans="1:5" s="3" customFormat="1">
-      <c r="A341" s="3" t="s">
+    <row r="359" spans="1:5" s="4" customFormat="1">
+      <c r="A359" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B359" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="C341" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E341" s="3" t="s">
+      <c r="C359" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E359" s="4" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="342" spans="1:5" s="3" customFormat="1">
-      <c r="A342" s="3" t="s">
+    <row r="360" spans="1:5" s="4" customFormat="1">
+      <c r="A360" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B360" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="C342" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E342" s="3" t="s">
+      <c r="C360" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E360" s="4" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="343" spans="1:5" s="3" customFormat="1">
-      <c r="A343" s="3" t="s">
+    <row r="361" spans="1:5" s="4" customFormat="1">
+      <c r="A361" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B361" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="C343" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E343" s="3" t="s">
+      <c r="C361" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E361" s="4" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="344" spans="1:5" s="3" customFormat="1">
-      <c r="A344" s="3" t="s">
+    <row r="362" spans="1:5" s="4" customFormat="1">
+      <c r="A362" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B362" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="C344" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E344" s="3" t="s">
+      <c r="C362" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E362" s="4" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="345" spans="1:5" s="3" customFormat="1">
-      <c r="A345" s="3" t="s">
+    <row r="363" spans="1:5" s="4" customFormat="1">
+      <c r="A363" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B363" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="C345" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E345" s="3" t="s">
+      <c r="C363" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E363" s="4" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" s="3" customFormat="1">
-      <c r="A346" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E346" s="3" t="s">
-        <v>899</v>
       </c>
     </row>
   </sheetData>

--- a/config/CPU.xlsx
+++ b/config/CPU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="945">
   <si>
     <t>DB2.ref_a</t>
   </si>
@@ -199,21 +199,9 @@
     <t>DB9,REAL1000,50</t>
   </si>
   <si>
-    <t>DB10.ref</t>
-  </si>
-  <si>
-    <t>DB10,REAL0,20</t>
-  </si>
-  <si>
     <t>CMT=опорный сигнал</t>
   </si>
   <si>
-    <t>DB10.coordinate</t>
-  </si>
-  <si>
-    <t>DB10,REAL80,20</t>
-  </si>
-  <si>
     <t>CMT=положение цилиндра</t>
   </si>
   <si>
@@ -358,18 +346,6 @@
     <t>DB19,REAL1000,50</t>
   </si>
   <si>
-    <t>DB20.ref</t>
-  </si>
-  <si>
-    <t>DB20,REAL0,20</t>
-  </si>
-  <si>
-    <t>DB20.coordinate</t>
-  </si>
-  <si>
-    <t>DB20,REAL80,20</t>
-  </si>
-  <si>
     <t>DB21.coordinate</t>
   </si>
   <si>
@@ -382,16 +358,7 @@
     <t>DB22,REAL400,100</t>
   </si>
   <si>
-    <t>DB23.coordinate</t>
-  </si>
-  <si>
-    <t>DB23,REAL0,10000</t>
-  </si>
-  <si>
-    <t>DB24.coordinate</t>
-  </si>
-  <si>
-    <t>DB24,REAL0,10000</t>
+    <t>CMT=выходной ток</t>
   </si>
   <si>
     <t>DB30.Current</t>
@@ -2848,58 +2815,40 @@
     <t>CMT=Число ячеек блока DB20/24</t>
   </si>
   <si>
-    <t>DB22.open_ref</t>
-  </si>
-  <si>
-    <t>DB22.open_consumption</t>
-  </si>
-  <si>
-    <t>DB22.open_bp3</t>
-  </si>
-  <si>
-    <t>DB22.open_bp4</t>
-  </si>
-  <si>
-    <t>DB22.open_bp5</t>
-  </si>
-  <si>
-    <t>DB22.close_ref</t>
-  </si>
-  <si>
-    <t>DB22.close_consumption</t>
-  </si>
-  <si>
-    <t>DB22.close_bp3</t>
-  </si>
-  <si>
-    <t>DB22.close_bp4</t>
-  </si>
-  <si>
-    <t>DB22.close_bp5</t>
-  </si>
-  <si>
-    <t>DB22,REAL800,100</t>
-  </si>
-  <si>
-    <t>DB22,REAL1200,100</t>
-  </si>
-  <si>
-    <t>DB22,REAL1600,100</t>
-  </si>
-  <si>
-    <t>DB22,REAL2000,100</t>
-  </si>
-  <si>
-    <t>DB22,REAL2400,100</t>
-  </si>
-  <si>
-    <t>DB22,REAL2800,100</t>
-  </si>
-  <si>
-    <t>DB22,REAL3200,100</t>
-  </si>
-  <si>
-    <t>DB22,REAL3600,100</t>
+    <t>DB10.signal</t>
+  </si>
+  <si>
+    <t>DB10,REAL0,15000</t>
+  </si>
+  <si>
+    <t>CMT=опорный сигнал на плату</t>
+  </si>
+  <si>
+    <t>DB20.signal</t>
+  </si>
+  <si>
+    <t>DB20,REAL0,15000</t>
+  </si>
+  <si>
+    <t>DB23,REAL0,15000</t>
+  </si>
+  <si>
+    <t>CMT=расположение цилиндра</t>
+  </si>
+  <si>
+    <t>DB24,REAL0,15000</t>
+  </si>
+  <si>
+    <t>DB23.coord</t>
+  </si>
+  <si>
+    <t>DB24.coord</t>
+  </si>
+  <si>
+    <t>DB22.signal</t>
+  </si>
+  <si>
+    <t>DB22.current</t>
   </si>
 </sst>
 </file>
@@ -3761,10 +3710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E363"/>
+  <dimension ref="A1:E356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3846,10 +3795,10 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -3858,15 +3807,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -3875,15 +3824,15 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -3892,15 +3841,15 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -3909,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1">
@@ -4082,389 +4031,489 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
-      <c r="A19" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
+    <row r="19" spans="1:5" s="1" customFormat="1">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1">
-      <c r="A20" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
+    <row r="20" spans="1:5" s="1" customFormat="1">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1">
-      <c r="A21" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
+    <row r="21" spans="1:5" s="1" customFormat="1">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1">
-      <c r="A22" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
+    <row r="22" spans="1:5" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1">
-      <c r="A23" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
+    <row r="23" spans="1:5" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1">
-      <c r="A24" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1">
-      <c r="A25" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2" t="s">
+    <row r="24" spans="1:5" s="1" customFormat="1">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1">
+      <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1">
-      <c r="A26" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
+    <row r="26" spans="1:5" s="1" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1">
-      <c r="A27" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
+    <row r="27" spans="1:5" s="1" customFormat="1">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1">
-      <c r="A28" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2" t="s">
+    <row r="28" spans="1:5" s="1" customFormat="1">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1"/>
-    <row r="30" spans="1:5" s="2" customFormat="1"/>
-    <row r="31" spans="1:5" s="2" customFormat="1"/>
-    <row r="32" spans="1:5" s="2" customFormat="1">
-      <c r="A32" s="2" t="s">
+    <row r="29" spans="1:5" s="1" customFormat="1">
+      <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1">
-      <c r="A33" s="2" t="s">
+    <row r="30" spans="1:5" s="1" customFormat="1">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1">
-      <c r="A34" s="2" t="s">
+    <row r="31" spans="1:5" s="1" customFormat="1">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1">
-      <c r="A35" s="2" t="s">
+    <row r="32" spans="1:5" s="1" customFormat="1">
+      <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1">
-      <c r="A36" s="2" t="s">
+    <row r="33" spans="1:5" s="1" customFormat="1">
+      <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1">
-      <c r="A37" s="2" t="s">
+    <row r="34" spans="1:5" s="1" customFormat="1">
+      <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1">
-      <c r="A38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="35" spans="1:5" s="1" customFormat="1">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1">
+      <c r="A38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1">
+      <c r="A39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1">
+      <c r="A40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1">
+      <c r="A41" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1">
+      <c r="A42" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1">
+      <c r="A43" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1">
+      <c r="A44" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1">
-      <c r="A39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1">
-      <c r="A40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="2" customFormat="1">
-      <c r="A45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="2" customFormat="1">
-      <c r="A46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="2" customFormat="1">
-      <c r="A47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1">
+      <c r="A46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="3" customFormat="1"/>
     <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>943</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -4473,15 +4522,15 @@
         <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>944</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
@@ -4490,287 +4539,143 @@
         <v>3</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1">
-      <c r="A50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1">
-      <c r="A51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="2" customFormat="1">
-      <c r="A52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1">
-      <c r="A53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1">
-      <c r="A54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1">
-      <c r="A55" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1">
-      <c r="A56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1">
-      <c r="A57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="2" customFormat="1">
-      <c r="A58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="2" customFormat="1">
-      <c r="A59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="2" customFormat="1">
-      <c r="A60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1">
-      <c r="A61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="2" t="s">
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1"/>
+    <row r="51" spans="1:5" s="2" customFormat="1"/>
+    <row r="52" spans="1:5" s="2" customFormat="1"/>
+    <row r="53" spans="1:5" s="2" customFormat="1"/>
+    <row r="54" spans="1:5" s="2" customFormat="1"/>
+    <row r="55" spans="1:5" s="2" customFormat="1"/>
+    <row r="56" spans="1:5" s="2" customFormat="1"/>
+    <row r="57" spans="1:5" s="2" customFormat="1"/>
+    <row r="58" spans="1:5" s="3" customFormat="1"/>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="2" customFormat="1">
-      <c r="A62" s="2" t="s">
+      <c r="B61" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="2" customFormat="1">
-      <c r="A63" s="2" t="s">
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B62" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="2" customFormat="1">
-      <c r="A66" s="2" t="s">
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B64" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="2" customFormat="1">
-      <c r="A67" s="2" t="s">
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B65" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>66</v>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -4779,15 +4684,15 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -4796,15 +4701,15 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -4813,15 +4718,15 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -4830,15 +4735,15 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -4847,15 +4752,15 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -4864,15 +4769,15 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -4881,15 +4786,15 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -4898,15 +4803,15 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -4915,15 +4820,15 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -4932,15 +4837,15 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -4949,15 +4854,15 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -4966,15 +4871,15 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -4983,15 +4888,15 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -5000,15 +4905,15 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -5017,15 +4922,15 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -5034,15 +4939,15 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -5051,15 +4956,15 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -5068,15 +4973,15 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -5085,15 +4990,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -5102,15 +5007,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -5119,15 +5024,15 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -5136,15 +5041,15 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -5153,15 +5058,15 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -5170,15 +5075,15 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -5187,15 +5092,15 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -5204,15 +5109,15 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -5221,15 +5126,15 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -5238,15 +5143,15 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -5255,15 +5160,15 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -5272,15 +5177,15 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -5289,15 +5194,15 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -5306,15 +5211,15 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -5323,15 +5228,15 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -5340,15 +5245,15 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -5357,15 +5262,15 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -5374,15 +5279,15 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -5391,15 +5296,15 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -5408,15 +5313,15 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
@@ -5425,15 +5330,15 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -5442,15 +5347,15 @@
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -5459,15 +5364,15 @@
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -5476,15 +5381,15 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -5493,15 +5398,15 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -5510,15 +5415,15 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -5527,15 +5432,15 @@
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -5544,15 +5449,15 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -5561,15 +5466,15 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -5578,15 +5483,15 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -5595,15 +5500,15 @@
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -5612,15 +5517,15 @@
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B118" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -5629,15 +5534,15 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -5646,15 +5551,15 @@
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B120" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -5663,15 +5568,15 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
@@ -5680,15 +5585,15 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B122" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -5697,15 +5602,15 @@
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
@@ -5714,15 +5619,15 @@
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
@@ -5731,15 +5636,15 @@
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B125" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -5748,15 +5653,15 @@
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -5765,15 +5670,15 @@
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B127" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -5782,15 +5687,15 @@
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B128" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -5799,15 +5704,15 @@
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
@@ -5816,15 +5721,15 @@
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -5833,15 +5738,15 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -5850,15 +5755,15 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B132" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -5867,15 +5772,15 @@
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B133" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
@@ -5884,15 +5789,15 @@
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B134" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -5901,15 +5806,15 @@
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B135" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -5918,15 +5823,15 @@
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B136" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
@@ -5935,15 +5840,15 @@
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B137" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -5952,15 +5857,15 @@
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -5969,15 +5874,15 @@
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B139" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -5986,15 +5891,15 @@
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B140" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -6003,15 +5908,15 @@
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B141" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -6020,15 +5925,15 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B142" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
@@ -6037,15 +5942,15 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B143" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -6054,15 +5959,15 @@
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B144" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -6071,15 +5976,15 @@
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B145" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -6088,15 +5993,15 @@
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B146" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -6105,15 +6010,15 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B147" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -6122,15 +6027,15 @@
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B148" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -6139,15 +6044,15 @@
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B149" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -6156,15 +6061,15 @@
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B150" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -6173,15 +6078,15 @@
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B151" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -6190,15 +6095,15 @@
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B152" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -6207,15 +6112,15 @@
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B153" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -6224,15 +6129,15 @@
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B154" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
@@ -6241,15 +6146,15 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B155" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
@@ -6258,15 +6163,15 @@
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B156" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -6275,15 +6180,15 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B157" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
@@ -6292,15 +6197,15 @@
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B158" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -6309,15 +6214,15 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B159" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -6326,15 +6231,15 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B160" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -6343,15 +6248,15 @@
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B161" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -6360,15 +6265,15 @@
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B162" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -6377,15 +6282,15 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B163" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -6394,15 +6299,15 @@
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B164" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -6411,15 +6316,15 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B165" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -6428,15 +6333,15 @@
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B166" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -6445,15 +6350,15 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B167" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -6462,15 +6367,15 @@
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B168" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -6479,15 +6384,15 @@
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B169" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -6496,15 +6401,15 @@
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B170" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -6513,15 +6418,15 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B171" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -6530,15 +6435,15 @@
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B172" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -6547,15 +6452,15 @@
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B173" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -6564,15 +6469,15 @@
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B174" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -6581,15 +6486,15 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B175" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -6598,15 +6503,15 @@
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B176" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -6615,15 +6520,15 @@
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B177" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -6632,15 +6537,15 @@
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B178" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -6649,15 +6554,15 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B179" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -6666,15 +6571,15 @@
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B180" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -6683,15 +6588,15 @@
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B181" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -6700,15 +6605,15 @@
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B182" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -6717,15 +6622,15 @@
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B183" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -6734,15 +6639,15 @@
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B184" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
@@ -6751,15 +6656,15 @@
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B185" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -6768,15 +6673,15 @@
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B186" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -6785,15 +6690,15 @@
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B187" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -6802,15 +6707,15 @@
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B188" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -6819,15 +6724,15 @@
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B189" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -6836,15 +6741,15 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B190" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -6853,15 +6758,15 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B191" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
@@ -6870,15 +6775,15 @@
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B192" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -6887,15 +6792,15 @@
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B193" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -6904,15 +6809,15 @@
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B194" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -6921,15 +6826,15 @@
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B195" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -6938,15 +6843,15 @@
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B196" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -6955,15 +6860,15 @@
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B197" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -6972,15 +6877,15 @@
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B198" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -6989,15 +6894,15 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B199" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C199" t="s">
         <v>2</v>
@@ -7006,15 +6911,15 @@
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B200" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
@@ -7023,15 +6928,15 @@
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B201" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -7040,15 +6945,15 @@
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B202" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -7057,15 +6962,15 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B203" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C203" t="s">
         <v>2</v>
@@ -7074,15 +6979,15 @@
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B204" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C204" t="s">
         <v>2</v>
@@ -7091,15 +6996,15 @@
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B205" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
@@ -7108,15 +7013,15 @@
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B206" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
@@ -7125,15 +7030,15 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B207" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
@@ -7142,15 +7047,15 @@
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B208" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -7159,15 +7064,15 @@
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B209" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -7176,15 +7081,15 @@
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B210" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -7193,15 +7098,15 @@
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B211" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -7210,15 +7115,15 @@
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B212" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -7227,15 +7132,15 @@
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B213" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -7244,15 +7149,15 @@
         <v>3</v>
       </c>
       <c r="E213" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B214" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -7261,15 +7166,15 @@
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B215" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -7278,134 +7183,134 @@
         <v>3</v>
       </c>
       <c r="E215" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>521</v>
-      </c>
-      <c r="B216" t="s">
-        <v>522</v>
-      </c>
-      <c r="C216" t="s">
-        <v>2</v>
-      </c>
-      <c r="D216" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>524</v>
-      </c>
-      <c r="B217" t="s">
-        <v>525</v>
-      </c>
-      <c r="C217" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" t="s">
-        <v>3</v>
-      </c>
-      <c r="E217" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>527</v>
-      </c>
-      <c r="B218" t="s">
-        <v>528</v>
-      </c>
-      <c r="C218" t="s">
-        <v>2</v>
-      </c>
-      <c r="D218" t="s">
-        <v>3</v>
-      </c>
-      <c r="E218" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
         <v>530</v>
       </c>
-      <c r="B219" t="s">
+    </row>
+    <row r="216" spans="1:5" s="3" customFormat="1">
+      <c r="A216" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C219" t="s">
-        <v>2</v>
-      </c>
-      <c r="D219" t="s">
-        <v>3</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="B216" s="3" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
+      <c r="C216" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B220" t="s">
+    </row>
+    <row r="217" spans="1:5" s="3" customFormat="1">
+      <c r="A217" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C220" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" t="s">
-        <v>3</v>
-      </c>
-      <c r="E220" t="s">
+      <c r="B217" s="3" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
+      <c r="C217" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B221" t="s">
+    </row>
+    <row r="218" spans="1:5" s="3" customFormat="1">
+      <c r="A218" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C221" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" t="s">
-        <v>3</v>
-      </c>
-      <c r="E221" t="s">
+      <c r="B218" s="3" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
+      <c r="C218" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B222" t="s">
+    </row>
+    <row r="219" spans="1:5" s="3" customFormat="1">
+      <c r="A219" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C222" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" t="s">
-        <v>3</v>
-      </c>
-      <c r="E222" t="s">
+      <c r="B219" s="3" t="s">
         <v>541</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" s="3" customFormat="1">
+      <c r="A220" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="3" customFormat="1">
+      <c r="A221" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" s="3" customFormat="1">
+      <c r="A222" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="223" spans="1:5" s="3" customFormat="1">
       <c r="A223" s="3" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>2</v>
@@ -7414,15 +7319,15 @@
         <v>3</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="224" spans="1:5" s="3" customFormat="1">
       <c r="A224" s="3" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>2</v>
@@ -7431,15 +7336,15 @@
         <v>3</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="225" spans="1:5" s="3" customFormat="1">
       <c r="A225" s="3" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>2</v>
@@ -7448,15 +7353,15 @@
         <v>3</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="226" spans="1:5" s="3" customFormat="1">
       <c r="A226" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>2</v>
@@ -7465,15 +7370,15 @@
         <v>3</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="227" spans="1:5" s="3" customFormat="1">
       <c r="A227" s="3" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>2</v>
@@ -7482,15 +7387,15 @@
         <v>3</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="228" spans="1:5" s="3" customFormat="1">
       <c r="A228" s="3" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>2</v>
@@ -7499,15 +7404,15 @@
         <v>3</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="3" customFormat="1">
       <c r="A229" s="3" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>2</v>
@@ -7516,15 +7421,15 @@
         <v>3</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="230" spans="1:5" s="3" customFormat="1">
       <c r="A230" s="3" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>2</v>
@@ -7533,15 +7438,15 @@
         <v>3</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="3" customFormat="1">
       <c r="A231" s="3" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>2</v>
@@ -7550,15 +7455,15 @@
         <v>3</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="232" spans="1:5" s="3" customFormat="1">
       <c r="A232" s="3" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>2</v>
@@ -7567,15 +7472,15 @@
         <v>3</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:5" s="3" customFormat="1">
       <c r="A233" s="3" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>2</v>
@@ -7584,15 +7489,15 @@
         <v>3</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
     </row>
     <row r="234" spans="1:5" s="3" customFormat="1">
       <c r="A234" s="3" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>2</v>
@@ -7601,15 +7506,15 @@
         <v>3</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="3" customFormat="1">
       <c r="A235" s="3" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>2</v>
@@ -7618,15 +7523,15 @@
         <v>3</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="3" customFormat="1">
       <c r="A236" s="3" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>2</v>
@@ -7635,15 +7540,15 @@
         <v>3</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="3" customFormat="1">
       <c r="A237" s="3" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>2</v>
@@ -7652,15 +7557,15 @@
         <v>3</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="3" customFormat="1">
       <c r="A238" s="3" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>2</v>
@@ -7669,15 +7574,15 @@
         <v>3</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="3" customFormat="1">
       <c r="A239" s="3" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>2</v>
@@ -7686,15 +7591,15 @@
         <v>3</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="3" customFormat="1">
       <c r="A240" s="3" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>2</v>
@@ -7703,15 +7608,15 @@
         <v>3</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="3" customFormat="1">
       <c r="A241" s="3" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>2</v>
@@ -7720,15 +7625,15 @@
         <v>3</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="242" spans="1:5" s="3" customFormat="1">
       <c r="A242" s="3" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>2</v>
@@ -7737,15 +7642,15 @@
         <v>3</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="243" spans="1:5" s="3" customFormat="1">
       <c r="A243" s="3" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>2</v>
@@ -7754,15 +7659,15 @@
         <v>3</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="244" spans="1:5" s="3" customFormat="1">
       <c r="A244" s="3" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>2</v>
@@ -7771,15 +7676,15 @@
         <v>3</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="3" customFormat="1">
       <c r="A245" s="3" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>2</v>
@@ -7788,15 +7693,15 @@
         <v>3</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="3" customFormat="1">
       <c r="A246" s="3" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>2</v>
@@ -7805,15 +7710,15 @@
         <v>3</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="3" customFormat="1">
       <c r="A247" s="3" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>2</v>
@@ -7822,15 +7727,15 @@
         <v>3</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="248" spans="1:5" s="3" customFormat="1">
       <c r="A248" s="3" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>2</v>
@@ -7839,15 +7744,15 @@
         <v>3</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="3" customFormat="1">
       <c r="A249" s="3" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>2</v>
@@ -7856,15 +7761,15 @@
         <v>3</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="3" customFormat="1">
       <c r="A250" s="3" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>2</v>
@@ -7873,15 +7778,15 @@
         <v>3</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="3" customFormat="1">
       <c r="A251" s="3" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>2</v>
@@ -7890,15 +7795,15 @@
         <v>3</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="252" spans="1:5" s="3" customFormat="1">
       <c r="A252" s="3" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>2</v>
@@ -7907,15 +7812,15 @@
         <v>3</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="253" spans="1:5" s="3" customFormat="1">
       <c r="A253" s="3" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>2</v>
@@ -7924,15 +7829,15 @@
         <v>3</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="254" spans="1:5" s="3" customFormat="1">
       <c r="A254" s="3" t="s">
-        <v>635</v>
+        <v>886</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>636</v>
+        <v>892</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>2</v>
@@ -7941,15 +7846,15 @@
         <v>3</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>637</v>
+        <v>901</v>
       </c>
     </row>
     <row r="255" spans="1:5" s="3" customFormat="1">
       <c r="A255" s="3" t="s">
-        <v>638</v>
+        <v>887</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>639</v>
+        <v>893</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>2</v>
@@ -7958,15 +7863,15 @@
         <v>3</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>640</v>
+        <v>902</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="3" customFormat="1">
       <c r="A256" s="3" t="s">
-        <v>641</v>
+        <v>888</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>642</v>
+        <v>894</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>2</v>
@@ -7975,15 +7880,15 @@
         <v>3</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>643</v>
+        <v>903</v>
       </c>
     </row>
     <row r="257" spans="1:5" s="3" customFormat="1">
       <c r="A257" s="3" t="s">
-        <v>644</v>
+        <v>889</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>645</v>
+        <v>895</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>2</v>
@@ -7992,15 +7897,15 @@
         <v>3</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>646</v>
+        <v>904</v>
       </c>
     </row>
     <row r="258" spans="1:5" s="3" customFormat="1">
       <c r="A258" s="3" t="s">
-        <v>647</v>
+        <v>890</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>648</v>
+        <v>896</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>2</v>
@@ -8009,15 +7914,15 @@
         <v>3</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>649</v>
+        <v>905</v>
       </c>
     </row>
     <row r="259" spans="1:5" s="3" customFormat="1">
       <c r="A259" s="3" t="s">
-        <v>650</v>
+        <v>891</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>651</v>
+        <v>897</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>2</v>
@@ -8026,15 +7931,15 @@
         <v>3</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>652</v>
+        <v>906</v>
       </c>
     </row>
     <row r="260" spans="1:5" s="3" customFormat="1">
       <c r="A260" s="3" t="s">
-        <v>653</v>
+        <v>898</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>654</v>
+        <v>899</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>2</v>
@@ -8043,15 +7948,15 @@
         <v>3</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>655</v>
+        <v>900</v>
       </c>
     </row>
     <row r="261" spans="1:5" s="3" customFormat="1">
       <c r="A261" s="3" t="s">
-        <v>897</v>
+        <v>645</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>903</v>
+        <v>646</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>2</v>
@@ -8060,15 +7965,15 @@
         <v>3</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>912</v>
+        <v>647</v>
       </c>
     </row>
     <row r="262" spans="1:5" s="3" customFormat="1">
       <c r="A262" s="3" t="s">
-        <v>898</v>
+        <v>648</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>904</v>
+        <v>649</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>2</v>
@@ -8077,15 +7982,15 @@
         <v>3</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>913</v>
+        <v>557</v>
       </c>
     </row>
     <row r="263" spans="1:5" s="3" customFormat="1">
       <c r="A263" s="3" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>2</v>
@@ -8094,15 +7999,15 @@
         <v>3</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>914</v>
+        <v>560</v>
       </c>
     </row>
     <row r="264" spans="1:5" s="3" customFormat="1">
       <c r="A264" s="3" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>2</v>
@@ -8111,15 +8016,15 @@
         <v>3</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="265" spans="1:5" s="3" customFormat="1">
       <c r="A265" s="3" t="s">
-        <v>901</v>
+        <v>650</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>907</v>
+        <v>651</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>2</v>
@@ -8128,15 +8033,15 @@
         <v>3</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>916</v>
+        <v>652</v>
       </c>
     </row>
     <row r="266" spans="1:5" s="3" customFormat="1">
       <c r="A266" s="3" t="s">
-        <v>902</v>
+        <v>653</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>908</v>
+        <v>654</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>2</v>
@@ -8145,15 +8050,15 @@
         <v>3</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>917</v>
+        <v>655</v>
       </c>
     </row>
     <row r="267" spans="1:5" s="3" customFormat="1">
       <c r="A267" s="3" t="s">
-        <v>909</v>
+        <v>656</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>910</v>
+        <v>657</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>2</v>
@@ -8162,15 +8067,15 @@
         <v>3</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>911</v>
+        <v>658</v>
       </c>
     </row>
     <row r="268" spans="1:5" s="3" customFormat="1">
       <c r="A268" s="3" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>2</v>
@@ -8179,15 +8084,15 @@
         <v>3</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>658</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269" spans="1:5" s="3" customFormat="1">
       <c r="A269" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>2</v>
@@ -8196,15 +8101,15 @@
         <v>3</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
     </row>
     <row r="270" spans="1:5" s="3" customFormat="1">
       <c r="A270" s="3" t="s">
-        <v>918</v>
+        <v>664</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>920</v>
+        <v>665</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>2</v>
@@ -8213,15 +8118,15 @@
         <v>3</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>571</v>
+        <v>666</v>
       </c>
     </row>
     <row r="271" spans="1:5" s="3" customFormat="1">
       <c r="A271" s="3" t="s">
-        <v>919</v>
+        <v>667</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>921</v>
+        <v>668</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>2</v>
@@ -8230,15 +8135,15 @@
         <v>3</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>922</v>
+        <v>669</v>
       </c>
     </row>
     <row r="272" spans="1:5" s="3" customFormat="1">
       <c r="A272" s="3" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>2</v>
@@ -8247,15 +8152,15 @@
         <v>3</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>663</v>
+        <v>590</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="3" customFormat="1">
       <c r="A273" s="3" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>2</v>
@@ -8264,15 +8169,15 @@
         <v>3</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>666</v>
+        <v>593</v>
       </c>
     </row>
     <row r="274" spans="1:5" s="3" customFormat="1">
       <c r="A274" s="3" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>2</v>
@@ -8281,15 +8186,15 @@
         <v>3</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>669</v>
+        <v>596</v>
       </c>
     </row>
     <row r="275" spans="1:5" s="3" customFormat="1">
       <c r="A275" s="3" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>2</v>
@@ -8298,15 +8203,15 @@
         <v>3</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="276" spans="1:5" s="3" customFormat="1">
       <c r="A276" s="3" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>2</v>
@@ -8315,15 +8220,15 @@
         <v>3</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="277" spans="1:5" s="3" customFormat="1">
       <c r="A277" s="3" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>2</v>
@@ -8332,15 +8237,15 @@
         <v>3</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="278" spans="1:5" s="3" customFormat="1">
       <c r="A278" s="3" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>2</v>
@@ -8349,15 +8254,15 @@
         <v>3</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>680</v>
+        <v>611</v>
       </c>
     </row>
     <row r="279" spans="1:5" s="3" customFormat="1">
       <c r="A279" s="3" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>2</v>
@@ -8366,15 +8271,15 @@
         <v>3</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="280" spans="1:5" s="3" customFormat="1">
       <c r="A280" s="3" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>2</v>
@@ -8383,15 +8288,15 @@
         <v>3</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="281" spans="1:5" s="3" customFormat="1">
       <c r="A281" s="3" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>2</v>
@@ -8400,15 +8305,15 @@
         <v>3</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
     </row>
     <row r="282" spans="1:5" s="3" customFormat="1">
       <c r="A282" s="3" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>2</v>
@@ -8417,15 +8322,15 @@
         <v>3</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="283" spans="1:5" s="3" customFormat="1">
       <c r="A283" s="3" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>2</v>
@@ -8434,15 +8339,15 @@
         <v>3</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>691</v>
+        <v>626</v>
       </c>
     </row>
     <row r="284" spans="1:5" s="3" customFormat="1">
       <c r="A284" s="3" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>2</v>
@@ -8451,15 +8356,15 @@
         <v>3</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>694</v>
+        <v>629</v>
       </c>
     </row>
     <row r="285" spans="1:5" s="3" customFormat="1">
       <c r="A285" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>2</v>
@@ -8468,15 +8373,15 @@
         <v>3</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="286" spans="1:5" s="3" customFormat="1">
       <c r="A286" s="3" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>2</v>
@@ -8485,15 +8390,15 @@
         <v>3</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
     <row r="287" spans="1:5" s="3" customFormat="1">
       <c r="A287" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>2</v>
@@ -8502,15 +8407,15 @@
         <v>3</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="288" spans="1:5" s="3" customFormat="1">
       <c r="A288" s="3" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>2</v>
@@ -8519,15 +8424,15 @@
         <v>3</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="3" customFormat="1">
       <c r="A289" s="3" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>2</v>
@@ -8536,15 +8441,15 @@
         <v>3</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="290" spans="1:5" s="3" customFormat="1">
       <c r="A290" s="3" t="s">
-        <v>705</v>
+        <v>924</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>706</v>
+        <v>912</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>2</v>
@@ -8553,15 +8458,15 @@
         <v>3</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>637</v>
+        <v>918</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="3" customFormat="1">
       <c r="A291" s="3" t="s">
-        <v>707</v>
+        <v>925</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>708</v>
+        <v>913</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>2</v>
@@ -8570,15 +8475,15 @@
         <v>3</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>640</v>
+        <v>919</v>
       </c>
     </row>
     <row r="292" spans="1:5" s="3" customFormat="1">
       <c r="A292" s="3" t="s">
-        <v>709</v>
+        <v>926</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>710</v>
+        <v>914</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>2</v>
@@ -8587,15 +8492,15 @@
         <v>3</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>643</v>
+        <v>920</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="3" customFormat="1">
       <c r="A293" s="3" t="s">
-        <v>711</v>
+        <v>927</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>712</v>
+        <v>915</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>2</v>
@@ -8604,15 +8509,15 @@
         <v>3</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>646</v>
+        <v>921</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="3" customFormat="1">
       <c r="A294" s="3" t="s">
-        <v>713</v>
+        <v>928</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>714</v>
+        <v>916</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>2</v>
@@ -8621,15 +8526,15 @@
         <v>3</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>649</v>
+        <v>922</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="3" customFormat="1">
       <c r="A295" s="3" t="s">
-        <v>715</v>
+        <v>929</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>716</v>
+        <v>917</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>2</v>
@@ -8638,151 +8543,151 @@
         <v>3</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>652</v>
+        <v>923</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="3" customFormat="1">
       <c r="A296" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" s="4" customFormat="1">
+      <c r="A297" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" s="4" customFormat="1">
+      <c r="A298" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" s="4" customFormat="1">
+      <c r="A299" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" s="4" customFormat="1">
+      <c r="A300" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E300" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="B296" s="3" t="s">
+    </row>
+    <row r="301" spans="1:5" s="4" customFormat="1">
+      <c r="A301" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="C296" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" s="3" customFormat="1">
-      <c r="A297" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" s="3" customFormat="1">
-      <c r="A298" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" s="3" customFormat="1">
-      <c r="A299" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E299" s="3" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" s="3" customFormat="1">
-      <c r="A300" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" s="3" customFormat="1">
-      <c r="A301" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" s="3" customFormat="1">
-      <c r="A302" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" s="3" customFormat="1">
-      <c r="A303" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E303" s="3" t="s">
-        <v>943</v>
+      <c r="B301" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" s="4" customFormat="1">
+      <c r="A302" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" s="4" customFormat="1">
+      <c r="A303" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="4" customFormat="1">
       <c r="A304" s="4" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>2</v>
@@ -8791,15 +8696,15 @@
         <v>3</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>544</v>
+        <v>729</v>
       </c>
     </row>
     <row r="305" spans="1:5" s="4" customFormat="1">
       <c r="A305" s="4" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>2</v>
@@ -8808,15 +8713,15 @@
         <v>3</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>547</v>
+        <v>732</v>
       </c>
     </row>
     <row r="306" spans="1:5" s="4" customFormat="1">
       <c r="A306" s="4" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>2</v>
@@ -8825,15 +8730,15 @@
         <v>3</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
     </row>
     <row r="307" spans="1:5" s="4" customFormat="1">
       <c r="A307" s="4" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>2</v>
@@ -8842,15 +8747,15 @@
         <v>3</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
     </row>
     <row r="308" spans="1:5" s="4" customFormat="1">
       <c r="A308" s="4" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>2</v>
@@ -8859,15 +8764,15 @@
         <v>3</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
     </row>
     <row r="309" spans="1:5" s="4" customFormat="1">
       <c r="A309" s="4" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>2</v>
@@ -8876,15 +8781,15 @@
         <v>3</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
     </row>
     <row r="310" spans="1:5" s="4" customFormat="1">
       <c r="A310" s="4" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>2</v>
@@ -8893,15 +8798,15 @@
         <v>3</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
     </row>
     <row r="311" spans="1:5" s="4" customFormat="1">
       <c r="A311" s="4" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>2</v>
@@ -8910,15 +8815,15 @@
         <v>3</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="312" spans="1:5" s="4" customFormat="1">
       <c r="A312" s="4" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>2</v>
@@ -8927,15 +8832,15 @@
         <v>3</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="313" spans="1:5" s="4" customFormat="1">
       <c r="A313" s="4" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>2</v>
@@ -8944,15 +8849,15 @@
         <v>3</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="314" spans="1:5" s="4" customFormat="1">
       <c r="A314" s="4" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>2</v>
@@ -8961,15 +8866,15 @@
         <v>3</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
     </row>
     <row r="315" spans="1:5" s="4" customFormat="1">
       <c r="A315" s="4" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>2</v>
@@ -8978,15 +8883,15 @@
         <v>3</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
     </row>
     <row r="316" spans="1:5" s="4" customFormat="1">
       <c r="A316" s="4" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>2</v>
@@ -8995,15 +8900,15 @@
         <v>3</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="317" spans="1:5" s="4" customFormat="1">
       <c r="A317" s="4" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>2</v>
@@ -9012,15 +8917,15 @@
         <v>3</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
     </row>
     <row r="318" spans="1:5" s="4" customFormat="1">
       <c r="A318" s="4" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>2</v>
@@ -9029,15 +8934,15 @@
         <v>3</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
     </row>
     <row r="319" spans="1:5" s="4" customFormat="1">
       <c r="A319" s="4" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>2</v>
@@ -9046,15 +8951,15 @@
         <v>3</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
     </row>
     <row r="320" spans="1:5" s="4" customFormat="1">
       <c r="A320" s="4" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>2</v>
@@ -9063,15 +8968,15 @@
         <v>3</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
     </row>
     <row r="321" spans="1:5" s="4" customFormat="1">
       <c r="A321" s="4" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>2</v>
@@ -9080,15 +8985,15 @@
         <v>3</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
     </row>
     <row r="322" spans="1:5" s="4" customFormat="1">
       <c r="A322" s="4" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>2</v>
@@ -9097,15 +9002,15 @@
         <v>3</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
     </row>
     <row r="323" spans="1:5" s="4" customFormat="1">
       <c r="A323" s="4" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>2</v>
@@ -9114,15 +9019,15 @@
         <v>3</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
     </row>
     <row r="324" spans="1:5" s="4" customFormat="1">
       <c r="A324" s="4" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>2</v>
@@ -9131,15 +9036,15 @@
         <v>3</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
     </row>
     <row r="325" spans="1:5" s="4" customFormat="1">
       <c r="A325" s="4" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>2</v>
@@ -9148,15 +9053,15 @@
         <v>3</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="326" spans="1:5" s="4" customFormat="1">
       <c r="A326" s="4" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>2</v>
@@ -9165,15 +9070,15 @@
         <v>3</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
     </row>
     <row r="327" spans="1:5" s="4" customFormat="1">
       <c r="A327" s="4" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>2</v>
@@ -9182,15 +9087,15 @@
         <v>3</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
     </row>
     <row r="328" spans="1:5" s="4" customFormat="1">
       <c r="A328" s="4" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>2</v>
@@ -9199,15 +9104,15 @@
         <v>3</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
     </row>
     <row r="329" spans="1:5" s="4" customFormat="1">
       <c r="A329" s="4" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>2</v>
@@ -9216,15 +9121,15 @@
         <v>3</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
     </row>
     <row r="330" spans="1:5" s="4" customFormat="1">
       <c r="A330" s="4" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>2</v>
@@ -9233,15 +9138,15 @@
         <v>3</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
     </row>
     <row r="331" spans="1:5" s="4" customFormat="1">
       <c r="A331" s="4" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>2</v>
@@ -9250,15 +9155,15 @@
         <v>3</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
     </row>
     <row r="332" spans="1:5" s="4" customFormat="1">
       <c r="A332" s="4" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>2</v>
@@ -9267,15 +9172,15 @@
         <v>3</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
     </row>
     <row r="333" spans="1:5" s="4" customFormat="1">
       <c r="A333" s="4" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>2</v>
@@ -9284,15 +9189,15 @@
         <v>3</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
     </row>
     <row r="334" spans="1:5" s="4" customFormat="1">
       <c r="A334" s="4" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>2</v>
@@ -9301,15 +9206,15 @@
         <v>3</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
     </row>
     <row r="335" spans="1:5" s="4" customFormat="1">
       <c r="A335" s="4" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>2</v>
@@ -9318,15 +9223,15 @@
         <v>3</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
     </row>
     <row r="336" spans="1:5" s="4" customFormat="1">
       <c r="A336" s="4" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>2</v>
@@ -9335,15 +9240,15 @@
         <v>3</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
     </row>
     <row r="337" spans="1:5" s="4" customFormat="1">
       <c r="A337" s="4" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>2</v>
@@ -9352,15 +9257,15 @@
         <v>3</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
     </row>
     <row r="338" spans="1:5" s="4" customFormat="1">
       <c r="A338" s="4" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>2</v>
@@ -9369,15 +9274,15 @@
         <v>3</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
     </row>
     <row r="339" spans="1:5" s="4" customFormat="1">
       <c r="A339" s="4" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>2</v>
@@ -9386,15 +9291,15 @@
         <v>3</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
     </row>
     <row r="340" spans="1:5" s="4" customFormat="1">
       <c r="A340" s="4" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>2</v>
@@ -9403,15 +9308,15 @@
         <v>3</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
     </row>
     <row r="341" spans="1:5" s="4" customFormat="1">
       <c r="A341" s="4" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>2</v>
@@ -9420,15 +9325,15 @@
         <v>3</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
     </row>
     <row r="342" spans="1:5" s="4" customFormat="1">
       <c r="A342" s="4" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>2</v>
@@ -9437,15 +9342,15 @@
         <v>3</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
     </row>
     <row r="343" spans="1:5" s="4" customFormat="1">
       <c r="A343" s="4" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>2</v>
@@ -9454,15 +9359,15 @@
         <v>3</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
     </row>
     <row r="344" spans="1:5" s="4" customFormat="1">
       <c r="A344" s="4" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>2</v>
@@ -9471,15 +9376,15 @@
         <v>3</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
     </row>
     <row r="345" spans="1:5" s="4" customFormat="1">
       <c r="A345" s="4" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>2</v>
@@ -9488,15 +9393,15 @@
         <v>3</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="346" spans="1:5" s="4" customFormat="1">
       <c r="A346" s="4" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>2</v>
@@ -9505,15 +9410,15 @@
         <v>3</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
     </row>
     <row r="347" spans="1:5" s="4" customFormat="1">
       <c r="A347" s="4" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>2</v>
@@ -9522,15 +9427,15 @@
         <v>3</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
     <row r="348" spans="1:5" s="4" customFormat="1">
       <c r="A348" s="4" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>2</v>
@@ -9539,15 +9444,15 @@
         <v>3</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
     </row>
     <row r="349" spans="1:5" s="4" customFormat="1">
       <c r="A349" s="4" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>2</v>
@@ -9556,15 +9461,15 @@
         <v>3</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
     </row>
     <row r="350" spans="1:5" s="4" customFormat="1">
       <c r="A350" s="4" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>2</v>
@@ -9573,15 +9478,15 @@
         <v>3</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
     </row>
     <row r="351" spans="1:5" s="4" customFormat="1">
       <c r="A351" s="4" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>2</v>
@@ -9590,15 +9495,15 @@
         <v>3</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
     </row>
     <row r="352" spans="1:5" s="4" customFormat="1">
       <c r="A352" s="4" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>2</v>
@@ -9607,15 +9512,15 @@
         <v>3</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
     </row>
     <row r="353" spans="1:5" s="4" customFormat="1">
       <c r="A353" s="4" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>2</v>
@@ -9624,15 +9529,15 @@
         <v>3</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
     </row>
     <row r="354" spans="1:5" s="4" customFormat="1">
       <c r="A354" s="4" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>2</v>
@@ -9641,15 +9546,15 @@
         <v>3</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
     </row>
     <row r="355" spans="1:5" s="4" customFormat="1">
       <c r="A355" s="4" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>2</v>
@@ -9658,15 +9563,15 @@
         <v>3</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
     </row>
     <row r="356" spans="1:5" s="4" customFormat="1">
       <c r="A356" s="4" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>2</v>
@@ -9675,126 +9580,7 @@
         <v>3</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" s="4" customFormat="1">
-      <c r="A357" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D357" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E357" s="4" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" s="4" customFormat="1">
-      <c r="A358" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D358" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E358" s="4" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" s="4" customFormat="1">
-      <c r="A359" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="B359" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="C359" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D359" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E359" s="4" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" s="4" customFormat="1">
-      <c r="A360" s="4" t="s">
         <v>885</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D360" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E360" s="4" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" s="4" customFormat="1">
-      <c r="A361" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D361" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E361" s="4" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" s="4" customFormat="1">
-      <c r="A362" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D362" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E362" s="4" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" s="4" customFormat="1">
-      <c r="A363" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D363" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E363" s="4" t="s">
-        <v>896</v>
       </c>
     </row>
   </sheetData>
